--- a/medicine/Psychotrope/Brakina/Brakina.xlsx
+++ b/medicine/Psychotrope/Brakina/Brakina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Brakina est une bière du Burkina Faso, brassée par la société du même nom (Brakina, Brasseries du Burkina).  
 La Brakina est une bière légère, très appréciée des burkinabés. La contenance des bouteilles de Brakina est de 65 centilitres, et son coût est approximativement de 600 francs CFA, soit 1 euro.
@@ -512,9 +524,11 @@
           <t>La société Brakina</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La société Brakina ou Brasseries du Burkina  est créée en 1960 et portait le nom de Bravolta. En 1977 naît Sovobra. En 1984, à la suite de la révolution d’août 1983, la Bravolta donne place à Brakina et la Sovobra à Sobbra. Au début des années 1990, le groupe français Castel acquiert Brakina et Sobbra. Les deux entités seront fusionnées en 1992 pour donner naissance à la Brakina actuelle[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La société Brakina ou Brasseries du Burkina  est créée en 1960 et portait le nom de Bravolta. En 1977 naît Sovobra. En 1984, à la suite de la révolution d’août 1983, la Bravolta donne place à Brakina et la Sovobra à Sobbra. Au début des années 1990, le groupe français Castel acquiert Brakina et Sobbra. Les deux entités seront fusionnées en 1992 pour donner naissance à la Brakina actuelle.
 La société est la propriété du groupe Castel. Elle propose également la Castel Beer, la Sobbra, la Flag Spéciale, la Doppel Munich, la Chill, la Sombrero, la Beaufort Lager, la Guinness, Malta Guinness, World Cola, Youki, XXL Energy, Doppel Energy Malt et Lafi.
 </t>
         </is>
@@ -544,9 +558,11 @@
           <t>Descriptif du produit</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Brakina, est une bière blonde avec 4,2 % d’alcool. Elle est conditionnée dans une bouteille en verre de 65 cL. Elle est produite avec le maïs du terroir pour promouvoir la filière agricole nationale[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brakina, est une bière blonde avec 4,2 % d’alcool. Elle est conditionnée dans une bouteille en verre de 65 cL. Elle est produite avec le maïs du terroir pour promouvoir la filière agricole nationale.
 </t>
         </is>
       </c>
